--- a/Tables/fc_robustness.xlsx
+++ b/Tables/fc_robustness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B1ABE0-148F-48AA-A47E-C204717E72DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52DDC33-8FCC-45F6-A211-EBA9E904B459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22920" yWindow="-8325" windowWidth="19320" windowHeight="11175" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
+    <workbookView xWindow="-19440" yWindow="-8115" windowWidth="18105" windowHeight="8280" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
   </bookViews>
   <sheets>
     <sheet name="fc_robustness" sheetId="1" r:id="rId1"/>
@@ -254,34 +254,34 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-405.4***</v>
+            <v>-377.6***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-591.1***</v>
+            <v>-557.7***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-393.0***</v>
+            <v>-375.6***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-574.7***</v>
+            <v>-552.9***</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-462.9***</v>
+            <v>-445.9***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-39.7***</v>
+            <v>-39.5***</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-69.1***</v>
+            <v>-68.8***</v>
           </cell>
           <cell r="I5" t="str">
-            <v>-30.6***</v>
+            <v>-35.8***</v>
           </cell>
           <cell r="J5" t="str">
-            <v>-57.1***</v>
+            <v>-62.9***</v>
           </cell>
           <cell r="K5" t="str">
-            <v>-41.0**</v>
+            <v>-46.9**</v>
           </cell>
         </row>
         <row r="6">
@@ -289,66 +289,66 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(139.1)</v>
+            <v>(135.4)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(186.7)</v>
+            <v>(181.7)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(139.9)</v>
+            <v>(135.9)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(187.2)</v>
+            <v>(182.1)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(166.1)</v>
+            <v>(161.8)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(6.41)</v>
+            <v>(6.37)</v>
           </cell>
           <cell r="H6" t="str">
             <v>(19.5)</v>
           </cell>
           <cell r="I6" t="str">
-            <v>(6.72)</v>
+            <v>(6.64)</v>
           </cell>
           <cell r="J6" t="str">
-            <v>(19.1)</v>
+            <v>(19.3)</v>
           </cell>
           <cell r="K6" t="str">
-            <v>(18.7)</v>
+            <v>(18.9)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-156.0</v>
+            <v>-159.9</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-159.5</v>
+            <v>-164.7</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-147.4</v>
+            <v>-155.5</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-148.3</v>
+            <v>-158.3</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-100.2</v>
+            <v>-110.3</v>
           </cell>
           <cell r="G8" t="str">
-            <v>1.20</v>
+            <v>1.72</v>
           </cell>
           <cell r="H8" t="str">
-            <v>10.3</v>
+            <v>11.0</v>
           </cell>
           <cell r="I8" t="str">
-            <v>5.67</v>
+            <v>4.10</v>
           </cell>
           <cell r="J8" t="str">
-            <v>17.1</v>
+            <v>15.3</v>
           </cell>
           <cell r="K8" t="str">
-            <v>16.6</v>
+            <v>14.8</v>
           </cell>
         </row>
         <row r="9">
@@ -356,28 +356,28 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(135.5)</v>
+            <v>(128.7)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(188.1)</v>
+            <v>(183.1)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(136.2)</v>
+            <v>(129.3)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(188.4)</v>
+            <v>(183.4)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(168.5)</v>
+            <v>(164.7)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(6.42)</v>
+            <v>(6.40)</v>
           </cell>
           <cell r="H9" t="str">
             <v>(18.0)</v>
           </cell>
           <cell r="I9" t="str">
-            <v>(6.53)</v>
+            <v>(6.56)</v>
           </cell>
           <cell r="J9" t="str">
             <v>(17.9)</v>
@@ -388,51 +388,51 @@
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>8521</v>
+            <v>8519</v>
           </cell>
           <cell r="C11" t="str">
-            <v>7204</v>
+            <v>7202</v>
           </cell>
           <cell r="D11" t="str">
-            <v>8521</v>
+            <v>8519</v>
           </cell>
           <cell r="E11" t="str">
-            <v>7204</v>
+            <v>7202</v>
           </cell>
           <cell r="F11" t="str">
-            <v>7204</v>
+            <v>7202</v>
           </cell>
           <cell r="G11" t="str">
-            <v>8521</v>
+            <v>8519</v>
           </cell>
           <cell r="H11" t="str">
-            <v>7204</v>
+            <v>7202</v>
           </cell>
           <cell r="I11" t="str">
-            <v>8521</v>
+            <v>8519</v>
           </cell>
           <cell r="J11" t="str">
-            <v>7204</v>
+            <v>7202</v>
           </cell>
           <cell r="K11" t="str">
-            <v>7204</v>
+            <v>7202</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>0.010</v>
+            <v>0.009</v>
           </cell>
           <cell r="C12" t="str">
-            <v>0.013</v>
+            <v>0.014</v>
           </cell>
           <cell r="D12" t="str">
             <v>0.010</v>
           </cell>
           <cell r="E12" t="str">
-            <v>0.013</v>
+            <v>0.014</v>
           </cell>
           <cell r="F12" t="str">
-            <v>0.013</v>
+            <v>0.014</v>
           </cell>
           <cell r="G12" t="str">
             <v>0.038</v>
@@ -441,10 +441,10 @@
             <v>0.023</v>
           </cell>
           <cell r="I12" t="str">
-            <v>0.032</v>
+            <v>0.035</v>
           </cell>
           <cell r="J12" t="str">
-            <v>0.022</v>
+            <v>0.023</v>
           </cell>
           <cell r="K12" t="str">
             <v>0.020</v>
@@ -452,34 +452,34 @@
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>3295.7</v>
+            <v>3270.0</v>
           </cell>
           <cell r="C13" t="str">
-            <v>3604.0</v>
+            <v>3573.6</v>
           </cell>
           <cell r="D13" t="str">
-            <v>3372.9</v>
+            <v>3342.3</v>
           </cell>
           <cell r="E13" t="str">
-            <v>3684.3</v>
+            <v>3648.2</v>
           </cell>
           <cell r="F13" t="str">
-            <v>3198.2</v>
+            <v>3166.7</v>
           </cell>
           <cell r="G13" t="str">
-            <v>248.7</v>
+            <v>248.6</v>
           </cell>
           <cell r="H13" t="str">
-            <v>343.7</v>
+            <v>343.6</v>
           </cell>
           <cell r="I13" t="str">
-            <v>284.9</v>
+            <v>283.0</v>
           </cell>
           <cell r="J13" t="str">
-            <v>381.1</v>
+            <v>378.8</v>
           </cell>
           <cell r="K13" t="str">
-            <v>272.6</v>
+            <v>270.2</v>
           </cell>
         </row>
       </sheetData>
@@ -787,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455B4659-7D7D-4C06-B6D8-4AEF526941D9}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F22"/>
     </sheetView>
   </sheetViews>
@@ -858,23 +858,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f>[1]fc_robustness!B5</f>
-        <v>-405.4***</v>
+        <v>-377.6***</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>[1]fc_robustness!C5</f>
-        <v>-591.1***</v>
+        <v>-557.7***</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>[1]fc_robustness!D5</f>
-        <v>-393.0***</v>
+        <v>-375.6***</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>[1]fc_robustness!E5</f>
-        <v>-574.7***</v>
+        <v>-552.9***</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>[1]fc_robustness!F5</f>
-        <v>-462.9***</v>
+        <v>-445.9***</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -884,23 +884,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f>[1]fc_robustness!B6</f>
-        <v>(139.1)</v>
+        <v>(135.4)</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>[1]fc_robustness!C6</f>
-        <v>(186.7)</v>
+        <v>(181.7)</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>[1]fc_robustness!D6</f>
-        <v>(139.9)</v>
+        <v>(135.9)</v>
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]fc_robustness!E6</f>
-        <v>(187.2)</v>
+        <v>(182.1)</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]fc_robustness!F6</f>
-        <v>(166.1)</v>
+        <v>(161.8)</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -909,23 +909,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f>[1]fc_robustness!B8</f>
-        <v>-156.0</v>
+        <v>-159.9</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>[1]fc_robustness!C8</f>
-        <v>-159.5</v>
+        <v>-164.7</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>[1]fc_robustness!D8</f>
-        <v>-147.4</v>
+        <v>-155.5</v>
       </c>
       <c r="E6" s="3" t="str">
         <f>[1]fc_robustness!E8</f>
-        <v>-148.3</v>
+        <v>-158.3</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>[1]fc_robustness!F8</f>
-        <v>-100.2</v>
+        <v>-110.3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -935,23 +935,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f>[1]fc_robustness!B9</f>
-        <v>(135.5)</v>
+        <v>(128.7)</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>[1]fc_robustness!C9</f>
-        <v>(188.1)</v>
+        <v>(183.1)</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>[1]fc_robustness!D9</f>
-        <v>(136.2)</v>
+        <v>(129.3)</v>
       </c>
       <c r="E7" s="3" t="str">
         <f>[1]fc_robustness!E9</f>
-        <v>(188.4)</v>
+        <v>(183.4)</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>[1]fc_robustness!F9</f>
-        <v>(168.5)</v>
+        <v>(164.7)</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -960,23 +960,23 @@
       </c>
       <c r="B9" s="4" t="str">
         <f>[1]fc_robustness!B11</f>
-        <v>8521</v>
+        <v>8519</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>[1]fc_robustness!C11</f>
-        <v>7204</v>
+        <v>7202</v>
       </c>
       <c r="D9" s="4" t="str">
         <f>[1]fc_robustness!D11</f>
-        <v>8521</v>
+        <v>8519</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>[1]fc_robustness!E11</f>
-        <v>7204</v>
+        <v>7202</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>[1]fc_robustness!F11</f>
-        <v>7204</v>
+        <v>7202</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -985,11 +985,11 @@
       </c>
       <c r="B10" s="3" t="str">
         <f>[1]fc_robustness!B12</f>
-        <v>0.010</v>
+        <v>0.009</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>[1]fc_robustness!C12</f>
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="D10" s="3" t="str">
         <f>[1]fc_robustness!D12</f>
@@ -997,11 +997,11 @@
       </c>
       <c r="E10" s="3" t="str">
         <f>[1]fc_robustness!E12</f>
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>[1]fc_robustness!F12</f>
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1010,23 +1010,23 @@
       </c>
       <c r="B11" s="5" t="str">
         <f>[1]fc_robustness!B13</f>
-        <v>3295.7</v>
+        <v>3270.0</v>
       </c>
       <c r="C11" s="5" t="str">
         <f>[1]fc_robustness!C13</f>
-        <v>3604.0</v>
+        <v>3573.6</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>[1]fc_robustness!D13</f>
-        <v>3372.9</v>
+        <v>3342.3</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>[1]fc_robustness!E13</f>
-        <v>3684.3</v>
+        <v>3648.2</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>[1]fc_robustness!F13</f>
-        <v>3198.2</v>
+        <v>3166.7</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1083,23 +1083,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f>[1]fc_robustness!G5</f>
-        <v>-39.7***</v>
+        <v>-39.5***</v>
       </c>
       <c r="C15" s="3" t="str">
         <f>[1]fc_robustness!H5</f>
-        <v>-69.1***</v>
+        <v>-68.8***</v>
       </c>
       <c r="D15" s="3" t="str">
         <f>[1]fc_robustness!I5</f>
-        <v>-30.6***</v>
+        <v>-35.8***</v>
       </c>
       <c r="E15" s="3" t="str">
         <f>[1]fc_robustness!J5</f>
-        <v>-57.1***</v>
+        <v>-62.9***</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>[1]fc_robustness!K5</f>
-        <v>-41.0**</v>
+        <v>-46.9**</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B16" s="3" t="str">
         <f>[1]fc_robustness!G6</f>
-        <v>(6.41)</v>
+        <v>(6.37)</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>[1]fc_robustness!H6</f>
@@ -1116,15 +1116,15 @@
       </c>
       <c r="D16" s="3" t="str">
         <f>[1]fc_robustness!I6</f>
-        <v>(6.72)</v>
+        <v>(6.64)</v>
       </c>
       <c r="E16" s="3" t="str">
         <f>[1]fc_robustness!J6</f>
-        <v>(19.1)</v>
+        <v>(19.3)</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>[1]fc_robustness!K6</f>
-        <v>(18.7)</v>
+        <v>(18.9)</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1133,23 +1133,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f>[1]fc_robustness!G8</f>
-        <v>1.20</v>
+        <v>1.72</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>[1]fc_robustness!H8</f>
-        <v>10.3</v>
+        <v>11.0</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>[1]fc_robustness!I8</f>
-        <v>5.67</v>
+        <v>4.10</v>
       </c>
       <c r="E17" s="3" t="str">
         <f>[1]fc_robustness!J8</f>
-        <v>17.1</v>
+        <v>15.3</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>[1]fc_robustness!K8</f>
-        <v>16.6</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" s="3" t="str">
         <f>[1]fc_robustness!G9</f>
-        <v>(6.42)</v>
+        <v>(6.40)</v>
       </c>
       <c r="C18" s="3" t="str">
         <f>[1]fc_robustness!H9</f>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D18" s="3" t="str">
         <f>[1]fc_robustness!I9</f>
-        <v>(6.53)</v>
+        <v>(6.56)</v>
       </c>
       <c r="E18" s="3" t="str">
         <f>[1]fc_robustness!J9</f>
@@ -1183,23 +1183,23 @@
       </c>
       <c r="B20" s="4" t="str">
         <f>[1]fc_robustness!G11</f>
-        <v>8521</v>
+        <v>8519</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>[1]fc_robustness!H11</f>
-        <v>7204</v>
+        <v>7202</v>
       </c>
       <c r="D20" s="4" t="str">
         <f>[1]fc_robustness!I11</f>
-        <v>8521</v>
+        <v>8519</v>
       </c>
       <c r="E20" s="4" t="str">
         <f>[1]fc_robustness!J11</f>
-        <v>7204</v>
+        <v>7202</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>[1]fc_robustness!K11</f>
-        <v>7204</v>
+        <v>7202</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1216,11 +1216,11 @@
       </c>
       <c r="D21" s="3" t="str">
         <f>[1]fc_robustness!I12</f>
-        <v>0.032</v>
+        <v>0.035</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>[1]fc_robustness!J12</f>
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>[1]fc_robustness!K12</f>
@@ -1233,23 +1233,23 @@
       </c>
       <c r="B22" s="5" t="str">
         <f>[1]fc_robustness!G13</f>
-        <v>248.7</v>
+        <v>248.6</v>
       </c>
       <c r="C22" s="5" t="str">
         <f>[1]fc_robustness!H13</f>
-        <v>343.7</v>
+        <v>343.6</v>
       </c>
       <c r="D22" s="5" t="str">
         <f>[1]fc_robustness!I13</f>
-        <v>284.9</v>
+        <v>283.0</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>[1]fc_robustness!J13</f>
-        <v>381.1</v>
+        <v>378.8</v>
       </c>
       <c r="F22" s="5" t="str">
         <f>[1]fc_robustness!K13</f>
-        <v>272.6</v>
+        <v>270.2</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>

--- a/Tables/fc_robustness.xlsx
+++ b/Tables/fc_robustness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52DDC33-8FCC-45F6-A211-EBA9E904B459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4569FD76-698A-44B6-A8EE-20B776A4852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19440" yWindow="-8115" windowWidth="18105" windowHeight="8280" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
+    <workbookView xWindow="-18195" yWindow="-12390" windowWidth="19185" windowHeight="11265" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
   </bookViews>
   <sheets>
     <sheet name="fc_robustness" sheetId="1" r:id="rId1"/>
@@ -254,34 +254,34 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-377.6***</v>
+            <v>-380.0***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-557.7***</v>
+            <v>-387.8***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-375.6***</v>
+            <v>-383.9***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-552.9***</v>
+            <v>-391.0***</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-445.9***</v>
+            <v>-223.9*</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-39.5***</v>
+            <v>-0.33***</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-68.8***</v>
+            <v>-0.48***</v>
           </cell>
           <cell r="I5" t="str">
-            <v>-35.8***</v>
+            <v>-0.38***</v>
           </cell>
           <cell r="J5" t="str">
-            <v>-62.9***</v>
+            <v>-0.53***</v>
           </cell>
           <cell r="K5" t="str">
-            <v>-46.9**</v>
+            <v>-0.32**</v>
           </cell>
         </row>
         <row r="6">
@@ -289,66 +289,66 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(135.4)</v>
+            <v>(112.1)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(181.7)</v>
+            <v>(131.5)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(135.9)</v>
+            <v>(111.6)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(182.1)</v>
+            <v>(131.1)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(161.8)</v>
+            <v>(125.2)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(6.37)</v>
+            <v>(0.081)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(19.5)</v>
+            <v>(0.15)</v>
           </cell>
           <cell r="I6" t="str">
-            <v>(6.64)</v>
+            <v>(0.086)</v>
           </cell>
           <cell r="J6" t="str">
-            <v>(19.3)</v>
+            <v>(0.16)</v>
           </cell>
           <cell r="K6" t="str">
-            <v>(18.9)</v>
+            <v>(0.14)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-159.9</v>
+            <v>-86.4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-164.7</v>
+            <v>-70.6</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-155.5</v>
+            <v>-80.8</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-158.3</v>
+            <v>-61.5</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-110.3</v>
+            <v>-43.7</v>
           </cell>
           <cell r="G8" t="str">
-            <v>1.72</v>
+            <v>-0.098</v>
           </cell>
           <cell r="H8" t="str">
-            <v>11.0</v>
+            <v>-0.22*</v>
           </cell>
           <cell r="I8" t="str">
-            <v>4.10</v>
+            <v>-0.11</v>
           </cell>
           <cell r="J8" t="str">
-            <v>15.3</v>
+            <v>-0.22*</v>
           </cell>
           <cell r="K8" t="str">
-            <v>14.8</v>
+            <v>-0.20</v>
           </cell>
         </row>
         <row r="9">
@@ -356,130 +356,130 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(128.7)</v>
+            <v>(114.3)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(183.1)</v>
+            <v>(132.6)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(129.3)</v>
+            <v>(113.9)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(183.4)</v>
+            <v>(132.2)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(164.7)</v>
+            <v>(123.9)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(6.40)</v>
+            <v>(0.073)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(18.0)</v>
+            <v>(0.13)</v>
           </cell>
           <cell r="I9" t="str">
-            <v>(6.56)</v>
+            <v>(0.078)</v>
           </cell>
           <cell r="J9" t="str">
-            <v>(17.9)</v>
+            <v>(0.13)</v>
           </cell>
           <cell r="K9" t="str">
-            <v>(17.7)</v>
+            <v>(0.12)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>8519</v>
+            <v>6304</v>
           </cell>
           <cell r="C11" t="str">
-            <v>7202</v>
+            <v>5632</v>
           </cell>
           <cell r="D11" t="str">
-            <v>8519</v>
+            <v>6304</v>
           </cell>
           <cell r="E11" t="str">
-            <v>7202</v>
+            <v>5632</v>
           </cell>
           <cell r="F11" t="str">
-            <v>7202</v>
+            <v>5632</v>
           </cell>
           <cell r="G11" t="str">
-            <v>8519</v>
+            <v>6304</v>
           </cell>
           <cell r="H11" t="str">
-            <v>7202</v>
+            <v>5632</v>
           </cell>
           <cell r="I11" t="str">
-            <v>8519</v>
+            <v>6304</v>
           </cell>
           <cell r="J11" t="str">
-            <v>7202</v>
+            <v>5632</v>
           </cell>
           <cell r="K11" t="str">
-            <v>7202</v>
+            <v>5632</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
+            <v>0.008</v>
+          </cell>
+          <cell r="C12" t="str">
             <v>0.009</v>
           </cell>
-          <cell r="C12" t="str">
+          <cell r="D12" t="str">
+            <v>0.008</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>0.009</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>0.010</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>0.012</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>0.015</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>0.012</v>
+          </cell>
+          <cell r="J12" t="str">
             <v>0.014</v>
           </cell>
-          <cell r="D12" t="str">
-            <v>0.010</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>0.014</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>0.014</v>
-          </cell>
-          <cell r="G12" t="str">
-            <v>0.038</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>0.023</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>0.035</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>0.023</v>
-          </cell>
           <cell r="K12" t="str">
-            <v>0.020</v>
+            <v>0.018</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>3270.0</v>
+            <v>1847.7</v>
           </cell>
           <cell r="C13" t="str">
-            <v>3573.6</v>
+            <v>1794.9</v>
           </cell>
           <cell r="D13" t="str">
-            <v>3342.3</v>
+            <v>1931.4</v>
           </cell>
           <cell r="E13" t="str">
-            <v>3648.2</v>
+            <v>1884.5</v>
           </cell>
           <cell r="F13" t="str">
-            <v>3166.7</v>
+            <v>1301.0</v>
           </cell>
           <cell r="G13" t="str">
-            <v>248.6</v>
+            <v>1.83</v>
           </cell>
           <cell r="H13" t="str">
-            <v>343.6</v>
+            <v>2.25</v>
           </cell>
           <cell r="I13" t="str">
-            <v>283.0</v>
+            <v>2.02</v>
           </cell>
           <cell r="J13" t="str">
-            <v>378.8</v>
+            <v>2.47</v>
           </cell>
           <cell r="K13" t="str">
-            <v>270.2</v>
+            <v>1.90</v>
           </cell>
         </row>
       </sheetData>
@@ -787,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455B4659-7D7D-4C06-B6D8-4AEF526941D9}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F22"/>
     </sheetView>
   </sheetViews>
@@ -858,23 +858,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f>[1]fc_robustness!B5</f>
-        <v>-377.6***</v>
+        <v>-380.0***</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>[1]fc_robustness!C5</f>
-        <v>-557.7***</v>
+        <v>-387.8***</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>[1]fc_robustness!D5</f>
-        <v>-375.6***</v>
+        <v>-383.9***</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>[1]fc_robustness!E5</f>
-        <v>-552.9***</v>
+        <v>-391.0***</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>[1]fc_robustness!F5</f>
-        <v>-445.9***</v>
+        <v>-223.9*</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -884,23 +884,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f>[1]fc_robustness!B6</f>
-        <v>(135.4)</v>
+        <v>(112.1)</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>[1]fc_robustness!C6</f>
-        <v>(181.7)</v>
+        <v>(131.5)</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>[1]fc_robustness!D6</f>
-        <v>(135.9)</v>
+        <v>(111.6)</v>
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]fc_robustness!E6</f>
-        <v>(182.1)</v>
+        <v>(131.1)</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]fc_robustness!F6</f>
-        <v>(161.8)</v>
+        <v>(125.2)</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -909,23 +909,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f>[1]fc_robustness!B8</f>
-        <v>-159.9</v>
+        <v>-86.4</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>[1]fc_robustness!C8</f>
-        <v>-164.7</v>
+        <v>-70.6</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>[1]fc_robustness!D8</f>
-        <v>-155.5</v>
+        <v>-80.8</v>
       </c>
       <c r="E6" s="3" t="str">
         <f>[1]fc_robustness!E8</f>
-        <v>-158.3</v>
+        <v>-61.5</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>[1]fc_robustness!F8</f>
-        <v>-110.3</v>
+        <v>-43.7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -935,23 +935,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f>[1]fc_robustness!B9</f>
-        <v>(128.7)</v>
+        <v>(114.3)</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>[1]fc_robustness!C9</f>
-        <v>(183.1)</v>
+        <v>(132.6)</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>[1]fc_robustness!D9</f>
-        <v>(129.3)</v>
+        <v>(113.9)</v>
       </c>
       <c r="E7" s="3" t="str">
         <f>[1]fc_robustness!E9</f>
-        <v>(183.4)</v>
+        <v>(132.2)</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>[1]fc_robustness!F9</f>
-        <v>(164.7)</v>
+        <v>(123.9)</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -960,23 +960,23 @@
       </c>
       <c r="B9" s="4" t="str">
         <f>[1]fc_robustness!B11</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>[1]fc_robustness!C11</f>
-        <v>7202</v>
+        <v>5632</v>
       </c>
       <c r="D9" s="4" t="str">
         <f>[1]fc_robustness!D11</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>[1]fc_robustness!E11</f>
-        <v>7202</v>
+        <v>5632</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>[1]fc_robustness!F11</f>
-        <v>7202</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -985,23 +985,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f>[1]fc_robustness!B12</f>
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>[1]fc_robustness!C12</f>
-        <v>0.014</v>
+        <v>0.009</v>
       </c>
       <c r="D10" s="3" t="str">
         <f>[1]fc_robustness!D12</f>
-        <v>0.010</v>
+        <v>0.008</v>
       </c>
       <c r="E10" s="3" t="str">
         <f>[1]fc_robustness!E12</f>
-        <v>0.014</v>
+        <v>0.009</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>[1]fc_robustness!F12</f>
-        <v>0.014</v>
+        <v>0.010</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1010,23 +1010,23 @@
       </c>
       <c r="B11" s="5" t="str">
         <f>[1]fc_robustness!B13</f>
-        <v>3270.0</v>
+        <v>1847.7</v>
       </c>
       <c r="C11" s="5" t="str">
         <f>[1]fc_robustness!C13</f>
-        <v>3573.6</v>
+        <v>1794.9</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>[1]fc_robustness!D13</f>
-        <v>3342.3</v>
+        <v>1931.4</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>[1]fc_robustness!E13</f>
-        <v>3648.2</v>
+        <v>1884.5</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>[1]fc_robustness!F13</f>
-        <v>3166.7</v>
+        <v>1301.0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1083,23 +1083,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f>[1]fc_robustness!G5</f>
-        <v>-39.5***</v>
+        <v>-0.33***</v>
       </c>
       <c r="C15" s="3" t="str">
         <f>[1]fc_robustness!H5</f>
-        <v>-68.8***</v>
+        <v>-0.48***</v>
       </c>
       <c r="D15" s="3" t="str">
         <f>[1]fc_robustness!I5</f>
-        <v>-35.8***</v>
+        <v>-0.38***</v>
       </c>
       <c r="E15" s="3" t="str">
         <f>[1]fc_robustness!J5</f>
-        <v>-62.9***</v>
+        <v>-0.53***</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>[1]fc_robustness!K5</f>
-        <v>-46.9**</v>
+        <v>-0.32**</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1108,23 +1108,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f>[1]fc_robustness!G6</f>
-        <v>(6.37)</v>
+        <v>(0.081)</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>[1]fc_robustness!H6</f>
-        <v>(19.5)</v>
+        <v>(0.15)</v>
       </c>
       <c r="D16" s="3" t="str">
         <f>[1]fc_robustness!I6</f>
-        <v>(6.64)</v>
+        <v>(0.086)</v>
       </c>
       <c r="E16" s="3" t="str">
         <f>[1]fc_robustness!J6</f>
-        <v>(19.3)</v>
+        <v>(0.16)</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>[1]fc_robustness!K6</f>
-        <v>(18.9)</v>
+        <v>(0.14)</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1133,23 +1133,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f>[1]fc_robustness!G8</f>
-        <v>1.72</v>
+        <v>-0.098</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>[1]fc_robustness!H8</f>
-        <v>11.0</v>
+        <v>-0.22*</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>[1]fc_robustness!I8</f>
-        <v>4.10</v>
+        <v>-0.11</v>
       </c>
       <c r="E17" s="3" t="str">
         <f>[1]fc_robustness!J8</f>
-        <v>15.3</v>
+        <v>-0.22*</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>[1]fc_robustness!K8</f>
-        <v>14.8</v>
+        <v>-0.20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1158,23 +1158,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f>[1]fc_robustness!G9</f>
-        <v>(6.40)</v>
+        <v>(0.073)</v>
       </c>
       <c r="C18" s="3" t="str">
         <f>[1]fc_robustness!H9</f>
-        <v>(18.0)</v>
+        <v>(0.13)</v>
       </c>
       <c r="D18" s="3" t="str">
         <f>[1]fc_robustness!I9</f>
-        <v>(6.56)</v>
+        <v>(0.078)</v>
       </c>
       <c r="E18" s="3" t="str">
         <f>[1]fc_robustness!J9</f>
-        <v>(17.9)</v>
+        <v>(0.13)</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>[1]fc_robustness!K9</f>
-        <v>(17.7)</v>
+        <v>(0.12)</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1183,23 +1183,23 @@
       </c>
       <c r="B20" s="4" t="str">
         <f>[1]fc_robustness!G11</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>[1]fc_robustness!H11</f>
-        <v>7202</v>
+        <v>5632</v>
       </c>
       <c r="D20" s="4" t="str">
         <f>[1]fc_robustness!I11</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
       <c r="E20" s="4" t="str">
         <f>[1]fc_robustness!J11</f>
-        <v>7202</v>
+        <v>5632</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>[1]fc_robustness!K11</f>
-        <v>7202</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1208,23 +1208,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f>[1]fc_robustness!G12</f>
-        <v>0.038</v>
+        <v>0.012</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>[1]fc_robustness!H12</f>
-        <v>0.023</v>
+        <v>0.015</v>
       </c>
       <c r="D21" s="3" t="str">
         <f>[1]fc_robustness!I12</f>
-        <v>0.035</v>
+        <v>0.012</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>[1]fc_robustness!J12</f>
-        <v>0.023</v>
+        <v>0.014</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>[1]fc_robustness!K12</f>
-        <v>0.020</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1233,23 +1233,23 @@
       </c>
       <c r="B22" s="5" t="str">
         <f>[1]fc_robustness!G13</f>
-        <v>248.6</v>
+        <v>1.83</v>
       </c>
       <c r="C22" s="5" t="str">
         <f>[1]fc_robustness!H13</f>
-        <v>343.6</v>
+        <v>2.25</v>
       </c>
       <c r="D22" s="5" t="str">
         <f>[1]fc_robustness!I13</f>
-        <v>283.0</v>
+        <v>2.02</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>[1]fc_robustness!J13</f>
-        <v>378.8</v>
+        <v>2.47</v>
       </c>
       <c r="F22" s="5" t="str">
         <f>[1]fc_robustness!K13</f>
-        <v>270.2</v>
+        <v>1.90</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>

--- a/Tables/fc_robustness.xlsx
+++ b/Tables/fc_robustness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2020\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4569FD76-698A-44B6-A8EE-20B776A4852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E310DC60-1503-41D8-8ACC-C85A785C4E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18195" yWindow="-12390" windowWidth="19185" windowHeight="11265" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
   </bookViews>
   <sheets>
     <sheet name="fc_robustness" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Observations</t>
   </si>
@@ -67,12 +67,6 @@
     <t>FC +  tc</t>
   </si>
   <si>
-    <t>FC (subj.) + tc</t>
-  </si>
-  <si>
-    <t>FC (fully adjusted)</t>
-  </si>
-  <si>
     <t>APR</t>
   </si>
   <si>
@@ -82,7 +76,16 @@
     <t>APR +  tc</t>
   </si>
   <si>
-    <t>APR (subj.) + tc</t>
+    <t>FC - interest</t>
+  </si>
+  <si>
+    <t>FC (subj.value) + tc - int</t>
+  </si>
+  <si>
+    <t>APR - interest</t>
+  </si>
+  <si>
+    <t>APR (subj.value) + tc - int</t>
   </si>
 </sst>
 </file>
@@ -254,34 +257,34 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-380.0***</v>
+            <v>-379.7***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-387.8***</v>
+            <v>-473.6***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-383.9***</v>
+            <v>-383.4***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-391.0***</v>
+            <v>-272.2**</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-223.9*</v>
+            <v>-320.0**</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.33***</v>
+            <v>-0.34***</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-0.48***</v>
+            <v>-0.62***</v>
           </cell>
           <cell r="I5" t="str">
-            <v>-0.38***</v>
+            <v>-0.39***</v>
           </cell>
           <cell r="J5" t="str">
-            <v>-0.53***</v>
+            <v>-0.29***</v>
           </cell>
           <cell r="K5" t="str">
-            <v>-0.32**</v>
+            <v>-0.41**</v>
           </cell>
         </row>
         <row r="6">
@@ -289,63 +292,63 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(112.1)</v>
+            <v>(111.4)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(131.5)</v>
+            <v>(151.0)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(111.6)</v>
+            <v>(110.9)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(131.1)</v>
+            <v>(108.8)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(125.2)</v>
+            <v>(144.3)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.081)</v>
+            <v>(0.080)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(0.15)</v>
+            <v>(0.17)</v>
           </cell>
           <cell r="I6" t="str">
             <v>(0.086)</v>
           </cell>
           <cell r="J6" t="str">
+            <v>(0.086)</v>
+          </cell>
+          <cell r="K6" t="str">
             <v>(0.16)</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>(0.14)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-86.4</v>
+            <v>-84.9</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-70.6</v>
+            <v>-104.0</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-80.8</v>
+            <v>-78.6</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-61.5</v>
+            <v>-79.8</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-43.7</v>
+            <v>-72.9</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.098</v>
+            <v>-0.12</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-0.22*</v>
+            <v>-0.25</v>
           </cell>
           <cell r="I8" t="str">
-            <v>-0.11</v>
+            <v>-0.13*</v>
           </cell>
           <cell r="J8" t="str">
-            <v>-0.22*</v>
+            <v>-0.14*</v>
           </cell>
           <cell r="K8" t="str">
             <v>-0.20</v>
@@ -356,34 +359,34 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
+            <v>(114.6)</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>(153.8)</v>
+          </cell>
+          <cell r="D9" t="str">
             <v>(114.3)</v>
           </cell>
-          <cell r="C9" t="str">
-            <v>(132.6)</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>(113.9)</v>
-          </cell>
           <cell r="E9" t="str">
-            <v>(132.2)</v>
+            <v>(114.2)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(123.9)</v>
+            <v>(149.0)</v>
           </cell>
           <cell r="G9" t="str">
             <v>(0.073)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(0.13)</v>
+            <v>(0.16)</v>
           </cell>
           <cell r="I9" t="str">
-            <v>(0.078)</v>
+            <v>(0.079)</v>
           </cell>
           <cell r="J9" t="str">
-            <v>(0.13)</v>
+            <v>(0.080)</v>
           </cell>
           <cell r="K9" t="str">
-            <v>(0.12)</v>
+            <v>(0.14)</v>
           </cell>
         </row>
         <row r="11">
@@ -391,95 +394,95 @@
             <v>6304</v>
           </cell>
           <cell r="C11" t="str">
-            <v>5632</v>
+            <v>6304</v>
           </cell>
           <cell r="D11" t="str">
             <v>6304</v>
           </cell>
           <cell r="E11" t="str">
-            <v>5632</v>
+            <v>6304</v>
           </cell>
           <cell r="F11" t="str">
-            <v>5632</v>
+            <v>6304</v>
           </cell>
           <cell r="G11" t="str">
             <v>6304</v>
           </cell>
           <cell r="H11" t="str">
-            <v>5632</v>
+            <v>6304</v>
           </cell>
           <cell r="I11" t="str">
             <v>6304</v>
           </cell>
           <cell r="J11" t="str">
-            <v>5632</v>
+            <v>6304</v>
           </cell>
           <cell r="K11" t="str">
-            <v>5632</v>
+            <v>6304</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>0.008</v>
+            <v>0.007</v>
           </cell>
           <cell r="C12" t="str">
+            <v>0.007</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>0.007</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>0.006</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>0.006</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>0.011</v>
+          </cell>
+          <cell r="H12" t="str">
             <v>0.009</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>0.008</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>0.009</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>0.010</v>
-          </cell>
-          <cell r="G12" t="str">
-            <v>0.012</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>0.015</v>
           </cell>
           <cell r="I12" t="str">
             <v>0.012</v>
           </cell>
           <cell r="J12" t="str">
-            <v>0.014</v>
+            <v>0.011</v>
           </cell>
           <cell r="K12" t="str">
-            <v>0.018</v>
+            <v>0.009</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>1847.7</v>
+            <v>1851.0</v>
           </cell>
           <cell r="C13" t="str">
-            <v>1794.9</v>
+            <v>2297.2</v>
           </cell>
           <cell r="D13" t="str">
-            <v>1931.4</v>
+            <v>1934.7</v>
           </cell>
           <cell r="E13" t="str">
-            <v>1884.5</v>
+            <v>1387.9</v>
           </cell>
           <cell r="F13" t="str">
-            <v>1301.0</v>
+            <v>1834.9</v>
           </cell>
           <cell r="G13" t="str">
-            <v>1.83</v>
+            <v>1.84</v>
           </cell>
           <cell r="H13" t="str">
-            <v>2.25</v>
+            <v>3.30</v>
           </cell>
           <cell r="I13" t="str">
-            <v>2.02</v>
+            <v>2.03</v>
           </cell>
           <cell r="J13" t="str">
-            <v>2.47</v>
+            <v>1.58</v>
           </cell>
           <cell r="K13" t="str">
-            <v>1.90</v>
+            <v>2.86</v>
           </cell>
         </row>
       </sheetData>
@@ -798,7 +801,7 @@
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -820,10 +823,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -858,23 +861,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f>[1]fc_robustness!B5</f>
-        <v>-380.0***</v>
+        <v>-379.7***</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>[1]fc_robustness!C5</f>
-        <v>-387.8***</v>
+        <v>-473.6***</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>[1]fc_robustness!D5</f>
-        <v>-383.9***</v>
+        <v>-383.4***</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>[1]fc_robustness!E5</f>
-        <v>-391.0***</v>
+        <v>-272.2**</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>[1]fc_robustness!F5</f>
-        <v>-223.9*</v>
+        <v>-320.0**</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -884,23 +887,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f>[1]fc_robustness!B6</f>
-        <v>(112.1)</v>
+        <v>(111.4)</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>[1]fc_robustness!C6</f>
-        <v>(131.5)</v>
+        <v>(151.0)</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>[1]fc_robustness!D6</f>
-        <v>(111.6)</v>
+        <v>(110.9)</v>
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]fc_robustness!E6</f>
-        <v>(131.1)</v>
+        <v>(108.8)</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]fc_robustness!F6</f>
-        <v>(125.2)</v>
+        <v>(144.3)</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -909,23 +912,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f>[1]fc_robustness!B8</f>
-        <v>-86.4</v>
+        <v>-84.9</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>[1]fc_robustness!C8</f>
-        <v>-70.6</v>
+        <v>-104.0</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>[1]fc_robustness!D8</f>
-        <v>-80.8</v>
+        <v>-78.6</v>
       </c>
       <c r="E6" s="3" t="str">
         <f>[1]fc_robustness!E8</f>
-        <v>-61.5</v>
+        <v>-79.8</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>[1]fc_robustness!F8</f>
-        <v>-43.7</v>
+        <v>-72.9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -935,23 +938,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f>[1]fc_robustness!B9</f>
-        <v>(114.3)</v>
+        <v>(114.6)</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>[1]fc_robustness!C9</f>
-        <v>(132.6)</v>
+        <v>(153.8)</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>[1]fc_robustness!D9</f>
-        <v>(113.9)</v>
+        <v>(114.3)</v>
       </c>
       <c r="E7" s="3" t="str">
         <f>[1]fc_robustness!E9</f>
-        <v>(132.2)</v>
+        <v>(114.2)</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>[1]fc_robustness!F9</f>
-        <v>(123.9)</v>
+        <v>(149.0)</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -964,7 +967,7 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>[1]fc_robustness!C11</f>
-        <v>5632</v>
+        <v>6304</v>
       </c>
       <c r="D9" s="4" t="str">
         <f>[1]fc_robustness!D11</f>
@@ -972,11 +975,11 @@
       </c>
       <c r="E9" s="4" t="str">
         <f>[1]fc_robustness!E11</f>
-        <v>5632</v>
+        <v>6304</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>[1]fc_robustness!F11</f>
-        <v>5632</v>
+        <v>6304</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -985,23 +988,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f>[1]fc_robustness!B12</f>
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>[1]fc_robustness!C12</f>
-        <v>0.009</v>
+        <v>0.007</v>
       </c>
       <c r="D10" s="3" t="str">
         <f>[1]fc_robustness!D12</f>
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E10" s="3" t="str">
         <f>[1]fc_robustness!E12</f>
-        <v>0.009</v>
+        <v>0.006</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>[1]fc_robustness!F12</f>
-        <v>0.010</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1010,23 +1013,23 @@
       </c>
       <c r="B11" s="5" t="str">
         <f>[1]fc_robustness!B13</f>
-        <v>1847.7</v>
+        <v>1851.0</v>
       </c>
       <c r="C11" s="5" t="str">
         <f>[1]fc_robustness!C13</f>
-        <v>1794.9</v>
+        <v>2297.2</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>[1]fc_robustness!D13</f>
-        <v>1931.4</v>
+        <v>1934.7</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>[1]fc_robustness!E13</f>
-        <v>1884.5</v>
+        <v>1387.9</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>[1]fc_robustness!F13</f>
-        <v>1301.0</v>
+        <v>1834.9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1039,19 +1042,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1083,23 +1086,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f>[1]fc_robustness!G5</f>
-        <v>-0.33***</v>
+        <v>-0.34***</v>
       </c>
       <c r="C15" s="3" t="str">
         <f>[1]fc_robustness!H5</f>
-        <v>-0.48***</v>
+        <v>-0.62***</v>
       </c>
       <c r="D15" s="3" t="str">
         <f>[1]fc_robustness!I5</f>
-        <v>-0.38***</v>
+        <v>-0.39***</v>
       </c>
       <c r="E15" s="3" t="str">
         <f>[1]fc_robustness!J5</f>
-        <v>-0.53***</v>
+        <v>-0.29***</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>[1]fc_robustness!K5</f>
-        <v>-0.32**</v>
+        <v>-0.41**</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1108,11 +1111,11 @@
       </c>
       <c r="B16" s="3" t="str">
         <f>[1]fc_robustness!G6</f>
-        <v>(0.081)</v>
+        <v>(0.080)</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>[1]fc_robustness!H6</f>
-        <v>(0.15)</v>
+        <v>(0.17)</v>
       </c>
       <c r="D16" s="3" t="str">
         <f>[1]fc_robustness!I6</f>
@@ -1120,11 +1123,11 @@
       </c>
       <c r="E16" s="3" t="str">
         <f>[1]fc_robustness!J6</f>
-        <v>(0.16)</v>
+        <v>(0.086)</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>[1]fc_robustness!K6</f>
-        <v>(0.14)</v>
+        <v>(0.16)</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1133,19 +1136,19 @@
       </c>
       <c r="B17" s="3" t="str">
         <f>[1]fc_robustness!G8</f>
-        <v>-0.098</v>
+        <v>-0.12</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>[1]fc_robustness!H8</f>
-        <v>-0.22*</v>
+        <v>-0.25</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>[1]fc_robustness!I8</f>
-        <v>-0.11</v>
+        <v>-0.13*</v>
       </c>
       <c r="E17" s="3" t="str">
         <f>[1]fc_robustness!J8</f>
-        <v>-0.22*</v>
+        <v>-0.14*</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>[1]fc_robustness!K8</f>
@@ -1162,19 +1165,19 @@
       </c>
       <c r="C18" s="3" t="str">
         <f>[1]fc_robustness!H9</f>
-        <v>(0.13)</v>
+        <v>(0.16)</v>
       </c>
       <c r="D18" s="3" t="str">
         <f>[1]fc_robustness!I9</f>
-        <v>(0.078)</v>
+        <v>(0.079)</v>
       </c>
       <c r="E18" s="3" t="str">
         <f>[1]fc_robustness!J9</f>
-        <v>(0.13)</v>
+        <v>(0.080)</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>[1]fc_robustness!K9</f>
-        <v>(0.12)</v>
+        <v>(0.14)</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1187,7 +1190,7 @@
       </c>
       <c r="C20" s="4" t="str">
         <f>[1]fc_robustness!H11</f>
-        <v>5632</v>
+        <v>6304</v>
       </c>
       <c r="D20" s="4" t="str">
         <f>[1]fc_robustness!I11</f>
@@ -1195,11 +1198,11 @@
       </c>
       <c r="E20" s="4" t="str">
         <f>[1]fc_robustness!J11</f>
-        <v>5632</v>
+        <v>6304</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>[1]fc_robustness!K11</f>
-        <v>5632</v>
+        <v>6304</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1208,11 +1211,11 @@
       </c>
       <c r="B21" s="3" t="str">
         <f>[1]fc_robustness!G12</f>
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>[1]fc_robustness!H12</f>
-        <v>0.015</v>
+        <v>0.009</v>
       </c>
       <c r="D21" s="3" t="str">
         <f>[1]fc_robustness!I12</f>
@@ -1220,11 +1223,11 @@
       </c>
       <c r="E21" s="3" t="str">
         <f>[1]fc_robustness!J12</f>
-        <v>0.014</v>
+        <v>0.011</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>[1]fc_robustness!K12</f>
-        <v>0.018</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1233,23 +1236,23 @@
       </c>
       <c r="B22" s="5" t="str">
         <f>[1]fc_robustness!G13</f>
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="C22" s="5" t="str">
         <f>[1]fc_robustness!H13</f>
-        <v>2.25</v>
+        <v>3.30</v>
       </c>
       <c r="D22" s="5" t="str">
         <f>[1]fc_robustness!I13</f>
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>[1]fc_robustness!J13</f>
-        <v>2.47</v>
+        <v>1.58</v>
       </c>
       <c r="F22" s="5" t="str">
         <f>[1]fc_robustness!K13</f>
-        <v>1.90</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>

--- a/Tables/fc_robustness.xlsx
+++ b/Tables/fc_robustness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E310DC60-1503-41D8-8ACC-C85A785C4E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890C67DA-4640-4839-A280-77D2EDB6F5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
+    <workbookView xWindow="-19530" yWindow="-13005" windowWidth="21600" windowHeight="11175" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
   </bookViews>
   <sheets>
     <sheet name="fc_robustness" sheetId="1" r:id="rId1"/>
@@ -213,8 +213,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="fc_robustness"/>
     </sheetNames>
@@ -257,19 +260,19 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-379.7***</v>
+            <v>-379.9***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-473.6***</v>
+            <v>-473.9***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-383.4***</v>
+            <v>-383.5***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-272.2**</v>
+            <v>-272.4**</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-320.0**</v>
+            <v>-320.3**</v>
           </cell>
           <cell r="G5" t="str">
             <v>-0.34***</v>
@@ -284,7 +287,7 @@
             <v>-0.29***</v>
           </cell>
           <cell r="K5" t="str">
-            <v>-0.41**</v>
+            <v>-0.40**</v>
           </cell>
         </row>
         <row r="6">
@@ -295,7 +298,7 @@
             <v>(111.4)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(151.0)</v>
+            <v>(150.9)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(110.9)</v>
@@ -304,10 +307,10 @@
             <v>(108.8)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(144.3)</v>
+            <v>(144.2)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.080)</v>
+            <v>(0.081)</v>
           </cell>
           <cell r="H6" t="str">
             <v>(0.17)</v>
@@ -324,34 +327,34 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-84.9</v>
+            <v>-78.8</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-104.0</v>
+            <v>-96.5</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-78.6</v>
+            <v>-72.6</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-79.8</v>
+            <v>-71.6</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-72.9</v>
+            <v>-65.4</v>
           </cell>
           <cell r="G8" t="str">
+            <v>-0.10</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>-0.22</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>-0.11</v>
+          </cell>
+          <cell r="J8" t="str">
             <v>-0.12</v>
           </cell>
-          <cell r="H8" t="str">
-            <v>-0.25</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>-0.13*</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v>-0.14*</v>
-          </cell>
           <cell r="K8" t="str">
-            <v>-0.20</v>
+            <v>-0.17</v>
           </cell>
         </row>
         <row r="9">
@@ -359,34 +362,34 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(114.6)</v>
+            <v>(114.5)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(153.8)</v>
+            <v>(153.7)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(114.3)</v>
+            <v>(114.2)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(114.2)</v>
+            <v>(114.1)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(149.0)</v>
+            <v>(148.9)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.073)</v>
+            <v>(0.074)</v>
           </cell>
           <cell r="H9" t="str">
             <v>(0.16)</v>
           </cell>
           <cell r="I9" t="str">
-            <v>(0.079)</v>
+            <v>(0.080)</v>
           </cell>
           <cell r="J9" t="str">
-            <v>(0.080)</v>
+            <v>(0.081)</v>
           </cell>
           <cell r="K9" t="str">
-            <v>(0.14)</v>
+            <v>(0.15)</v>
           </cell>
         </row>
         <row r="11">
@@ -455,25 +458,25 @@
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>1851.0</v>
+            <v>1850.6</v>
           </cell>
           <cell r="C13" t="str">
-            <v>2297.2</v>
+            <v>2296.7</v>
           </cell>
           <cell r="D13" t="str">
-            <v>1934.7</v>
+            <v>1934.3</v>
           </cell>
           <cell r="E13" t="str">
-            <v>1387.9</v>
+            <v>1387.4</v>
           </cell>
           <cell r="F13" t="str">
-            <v>1834.9</v>
+            <v>1834.4</v>
           </cell>
           <cell r="G13" t="str">
-            <v>1.84</v>
+            <v>1.83</v>
           </cell>
           <cell r="H13" t="str">
-            <v>3.30</v>
+            <v>3.29</v>
           </cell>
           <cell r="I13" t="str">
             <v>2.03</v>
@@ -861,23 +864,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f>[1]fc_robustness!B5</f>
-        <v>-379.7***</v>
+        <v>-379.9***</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>[1]fc_robustness!C5</f>
-        <v>-473.6***</v>
+        <v>-473.9***</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>[1]fc_robustness!D5</f>
-        <v>-383.4***</v>
+        <v>-383.5***</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>[1]fc_robustness!E5</f>
-        <v>-272.2**</v>
+        <v>-272.4**</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>[1]fc_robustness!F5</f>
-        <v>-320.0**</v>
+        <v>-320.3**</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -891,7 +894,7 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>[1]fc_robustness!C6</f>
-        <v>(151.0)</v>
+        <v>(150.9)</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>[1]fc_robustness!D6</f>
@@ -903,7 +906,7 @@
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]fc_robustness!F6</f>
-        <v>(144.3)</v>
+        <v>(144.2)</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -912,23 +915,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f>[1]fc_robustness!B8</f>
-        <v>-84.9</v>
+        <v>-78.8</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>[1]fc_robustness!C8</f>
-        <v>-104.0</v>
+        <v>-96.5</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>[1]fc_robustness!D8</f>
-        <v>-78.6</v>
+        <v>-72.6</v>
       </c>
       <c r="E6" s="3" t="str">
         <f>[1]fc_robustness!E8</f>
-        <v>-79.8</v>
+        <v>-71.6</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>[1]fc_robustness!F8</f>
-        <v>-72.9</v>
+        <v>-65.4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -938,23 +941,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f>[1]fc_robustness!B9</f>
-        <v>(114.6)</v>
+        <v>(114.5)</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>[1]fc_robustness!C9</f>
-        <v>(153.8)</v>
+        <v>(153.7)</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>[1]fc_robustness!D9</f>
-        <v>(114.3)</v>
+        <v>(114.2)</v>
       </c>
       <c r="E7" s="3" t="str">
         <f>[1]fc_robustness!E9</f>
-        <v>(114.2)</v>
+        <v>(114.1)</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>[1]fc_robustness!F9</f>
-        <v>(149.0)</v>
+        <v>(148.9)</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1013,23 +1016,23 @@
       </c>
       <c r="B11" s="5" t="str">
         <f>[1]fc_robustness!B13</f>
-        <v>1851.0</v>
+        <v>1850.6</v>
       </c>
       <c r="C11" s="5" t="str">
         <f>[1]fc_robustness!C13</f>
-        <v>2297.2</v>
+        <v>2296.7</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>[1]fc_robustness!D13</f>
-        <v>1934.7</v>
+        <v>1934.3</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>[1]fc_robustness!E13</f>
-        <v>1387.9</v>
+        <v>1387.4</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>[1]fc_robustness!F13</f>
-        <v>1834.9</v>
+        <v>1834.4</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1102,7 +1105,7 @@
       </c>
       <c r="F15" s="3" t="str">
         <f>[1]fc_robustness!K5</f>
-        <v>-0.41**</v>
+        <v>-0.40**</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1111,7 +1114,7 @@
       </c>
       <c r="B16" s="3" t="str">
         <f>[1]fc_robustness!G6</f>
-        <v>(0.080)</v>
+        <v>(0.081)</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>[1]fc_robustness!H6</f>
@@ -1136,23 +1139,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f>[1]fc_robustness!G8</f>
-        <v>-0.12</v>
+        <v>-0.10</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>[1]fc_robustness!H8</f>
-        <v>-0.25</v>
+        <v>-0.22</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>[1]fc_robustness!I8</f>
-        <v>-0.13*</v>
+        <v>-0.11</v>
       </c>
       <c r="E17" s="3" t="str">
         <f>[1]fc_robustness!J8</f>
-        <v>-0.14*</v>
+        <v>-0.12</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>[1]fc_robustness!K8</f>
-        <v>-0.20</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1161,7 +1164,7 @@
       </c>
       <c r="B18" s="3" t="str">
         <f>[1]fc_robustness!G9</f>
-        <v>(0.073)</v>
+        <v>(0.074)</v>
       </c>
       <c r="C18" s="3" t="str">
         <f>[1]fc_robustness!H9</f>
@@ -1169,15 +1172,15 @@
       </c>
       <c r="D18" s="3" t="str">
         <f>[1]fc_robustness!I9</f>
-        <v>(0.079)</v>
+        <v>(0.080)</v>
       </c>
       <c r="E18" s="3" t="str">
         <f>[1]fc_robustness!J9</f>
-        <v>(0.080)</v>
+        <v>(0.081)</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>[1]fc_robustness!K9</f>
-        <v>(0.14)</v>
+        <v>(0.15)</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1236,11 +1239,11 @@
       </c>
       <c r="B22" s="5" t="str">
         <f>[1]fc_robustness!G13</f>
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="C22" s="5" t="str">
         <f>[1]fc_robustness!H13</f>
-        <v>3.30</v>
+        <v>3.29</v>
       </c>
       <c r="D22" s="5" t="str">
         <f>[1]fc_robustness!I13</f>

--- a/Tables/fc_robustness.xlsx
+++ b/Tables/fc_robustness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890C67DA-4640-4839-A280-77D2EDB6F5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D356ED3-BDD8-4363-9E6D-AF9D6EC7D019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19530" yWindow="-13005" windowWidth="21600" windowHeight="11175" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
+    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
   </bookViews>
   <sheets>
     <sheet name="fc_robustness" sheetId="1" r:id="rId1"/>
@@ -260,34 +260,34 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-379.9***</v>
+            <v>-202.8***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-473.9***</v>
+            <v>-297.6***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-383.5***</v>
+            <v>-206.5***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-272.4**</v>
+            <v>-96.5***</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-320.3**</v>
+            <v>-144.0**</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.34***</v>
+            <v>-0.11***</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-0.62***</v>
+            <v>-0.21***</v>
           </cell>
           <cell r="I5" t="str">
-            <v>-0.39***</v>
+            <v>-0.13***</v>
           </cell>
           <cell r="J5" t="str">
-            <v>-0.29***</v>
+            <v>-0.060***</v>
           </cell>
           <cell r="K5" t="str">
-            <v>-0.40**</v>
+            <v>-0.094**</v>
           </cell>
         </row>
         <row r="6">
@@ -295,66 +295,66 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(111.4)</v>
+            <v>(48.1)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(150.9)</v>
+            <v>(83.3)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(110.9)</v>
+            <v>(49.0)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(108.8)</v>
+            <v>(36.6)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(144.2)</v>
+            <v>(72.8)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.081)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(0.17)</v>
+            <v>(0.050)</v>
           </cell>
           <cell r="I6" t="str">
-            <v>(0.086)</v>
+            <v>(0.028)</v>
           </cell>
           <cell r="J6" t="str">
-            <v>(0.086)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="K6" t="str">
-            <v>(0.16)</v>
+            <v>(0.043)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-78.8</v>
+            <v>-39.6</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-96.5</v>
+            <v>-57.2</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-72.6</v>
+            <v>-33.3</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-71.6</v>
+            <v>-32.3</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-65.4</v>
+            <v>-26.1</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.10</v>
+            <v>-0.0089</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-0.22</v>
+            <v>-0.053</v>
           </cell>
           <cell r="I8" t="str">
-            <v>-0.11</v>
+            <v>-0.0038</v>
           </cell>
           <cell r="J8" t="str">
-            <v>-0.12</v>
+            <v>-0.031*</v>
           </cell>
           <cell r="K8" t="str">
-            <v>-0.17</v>
+            <v>-0.043</v>
           </cell>
         </row>
         <row r="9">
@@ -362,34 +362,34 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(114.5)</v>
+            <v>(49.8)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(153.7)</v>
+            <v>(83.5)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(114.2)</v>
+            <v>(50.9)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(114.1)</v>
+            <v>(39.1)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(148.9)</v>
+            <v>(74.4)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.074)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(0.16)</v>
+            <v>(0.045)</v>
           </cell>
           <cell r="I9" t="str">
-            <v>(0.080)</v>
+            <v>(0.028)</v>
           </cell>
           <cell r="J9" t="str">
-            <v>(0.081)</v>
+            <v>(0.017)</v>
           </cell>
           <cell r="K9" t="str">
-            <v>(0.15)</v>
+            <v>(0.040)</v>
           </cell>
         </row>
         <row r="11">
@@ -426,66 +426,66 @@
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>0.007</v>
+            <v>0.013</v>
           </cell>
           <cell r="C12" t="str">
-            <v>0.007</v>
+            <v>0.009</v>
           </cell>
           <cell r="D12" t="str">
-            <v>0.007</v>
+            <v>0.014</v>
           </cell>
           <cell r="E12" t="str">
-            <v>0.006</v>
+            <v>0.005</v>
           </cell>
           <cell r="F12" t="str">
             <v>0.006</v>
           </cell>
           <cell r="G12" t="str">
+            <v>0.031</v>
+          </cell>
+          <cell r="H12" t="str">
             <v>0.011</v>
           </cell>
-          <cell r="H12" t="str">
-            <v>0.009</v>
-          </cell>
           <cell r="I12" t="str">
-            <v>0.012</v>
+            <v>0.027</v>
           </cell>
           <cell r="J12" t="str">
-            <v>0.011</v>
+            <v>0.008</v>
           </cell>
           <cell r="K12" t="str">
-            <v>0.009</v>
+            <v>0.007</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>1850.6</v>
+            <v>941.3</v>
           </cell>
           <cell r="C13" t="str">
-            <v>2296.7</v>
+            <v>1387.9</v>
           </cell>
           <cell r="D13" t="str">
-            <v>1934.3</v>
+            <v>1025.0</v>
           </cell>
           <cell r="E13" t="str">
-            <v>1387.4</v>
+            <v>478.8</v>
           </cell>
           <cell r="F13" t="str">
-            <v>1834.4</v>
+            <v>925.7</v>
           </cell>
           <cell r="G13" t="str">
-            <v>1.83</v>
+            <v>0.57</v>
           </cell>
           <cell r="H13" t="str">
-            <v>3.29</v>
+            <v>1.11</v>
           </cell>
           <cell r="I13" t="str">
-            <v>2.03</v>
+            <v>0.72</v>
           </cell>
           <cell r="J13" t="str">
-            <v>1.58</v>
+            <v>0.31</v>
           </cell>
           <cell r="K13" t="str">
-            <v>2.86</v>
+            <v>0.84</v>
           </cell>
         </row>
       </sheetData>
@@ -803,7 +803,7 @@
     <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -864,23 +864,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f>[1]fc_robustness!B5</f>
-        <v>-379.9***</v>
+        <v>-202.8***</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>[1]fc_robustness!C5</f>
-        <v>-473.9***</v>
+        <v>-297.6***</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>[1]fc_robustness!D5</f>
-        <v>-383.5***</v>
+        <v>-206.5***</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>[1]fc_robustness!E5</f>
-        <v>-272.4**</v>
+        <v>-96.5***</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>[1]fc_robustness!F5</f>
-        <v>-320.3**</v>
+        <v>-144.0**</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -890,23 +890,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f>[1]fc_robustness!B6</f>
-        <v>(111.4)</v>
+        <v>(48.1)</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>[1]fc_robustness!C6</f>
-        <v>(150.9)</v>
+        <v>(83.3)</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>[1]fc_robustness!D6</f>
-        <v>(110.9)</v>
+        <v>(49.0)</v>
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]fc_robustness!E6</f>
-        <v>(108.8)</v>
+        <v>(36.6)</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]fc_robustness!F6</f>
-        <v>(144.2)</v>
+        <v>(72.8)</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -915,23 +915,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f>[1]fc_robustness!B8</f>
-        <v>-78.8</v>
+        <v>-39.6</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>[1]fc_robustness!C8</f>
-        <v>-96.5</v>
+        <v>-57.2</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>[1]fc_robustness!D8</f>
-        <v>-72.6</v>
+        <v>-33.3</v>
       </c>
       <c r="E6" s="3" t="str">
         <f>[1]fc_robustness!E8</f>
-        <v>-71.6</v>
+        <v>-32.3</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>[1]fc_robustness!F8</f>
-        <v>-65.4</v>
+        <v>-26.1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -941,23 +941,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f>[1]fc_robustness!B9</f>
-        <v>(114.5)</v>
+        <v>(49.8)</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>[1]fc_robustness!C9</f>
-        <v>(153.7)</v>
+        <v>(83.5)</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>[1]fc_robustness!D9</f>
-        <v>(114.2)</v>
+        <v>(50.9)</v>
       </c>
       <c r="E7" s="3" t="str">
         <f>[1]fc_robustness!E9</f>
-        <v>(114.1)</v>
+        <v>(39.1)</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>[1]fc_robustness!F9</f>
-        <v>(148.9)</v>
+        <v>(74.4)</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -991,19 +991,19 @@
       </c>
       <c r="B10" s="3" t="str">
         <f>[1]fc_robustness!B12</f>
-        <v>0.007</v>
+        <v>0.013</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>[1]fc_robustness!C12</f>
-        <v>0.007</v>
+        <v>0.009</v>
       </c>
       <c r="D10" s="3" t="str">
         <f>[1]fc_robustness!D12</f>
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
       <c r="E10" s="3" t="str">
         <f>[1]fc_robustness!E12</f>
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>[1]fc_robustness!F12</f>
@@ -1016,23 +1016,23 @@
       </c>
       <c r="B11" s="5" t="str">
         <f>[1]fc_robustness!B13</f>
-        <v>1850.6</v>
+        <v>941.3</v>
       </c>
       <c r="C11" s="5" t="str">
         <f>[1]fc_robustness!C13</f>
-        <v>2296.7</v>
+        <v>1387.9</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>[1]fc_robustness!D13</f>
-        <v>1934.3</v>
+        <v>1025.0</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>[1]fc_robustness!E13</f>
-        <v>1387.4</v>
+        <v>478.8</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>[1]fc_robustness!F13</f>
-        <v>1834.4</v>
+        <v>925.7</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1089,23 +1089,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f>[1]fc_robustness!G5</f>
-        <v>-0.34***</v>
+        <v>-0.11***</v>
       </c>
       <c r="C15" s="3" t="str">
         <f>[1]fc_robustness!H5</f>
-        <v>-0.62***</v>
+        <v>-0.21***</v>
       </c>
       <c r="D15" s="3" t="str">
         <f>[1]fc_robustness!I5</f>
-        <v>-0.39***</v>
+        <v>-0.13***</v>
       </c>
       <c r="E15" s="3" t="str">
         <f>[1]fc_robustness!J5</f>
-        <v>-0.29***</v>
+        <v>-0.060***</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>[1]fc_robustness!K5</f>
-        <v>-0.40**</v>
+        <v>-0.094**</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1114,23 +1114,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f>[1]fc_robustness!G6</f>
-        <v>(0.081)</v>
+        <v>(0.019)</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>[1]fc_robustness!H6</f>
-        <v>(0.17)</v>
+        <v>(0.050)</v>
       </c>
       <c r="D16" s="3" t="str">
         <f>[1]fc_robustness!I6</f>
-        <v>(0.086)</v>
+        <v>(0.028)</v>
       </c>
       <c r="E16" s="3" t="str">
         <f>[1]fc_robustness!J6</f>
-        <v>(0.086)</v>
+        <v>(0.019)</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>[1]fc_robustness!K6</f>
-        <v>(0.16)</v>
+        <v>(0.043)</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1139,23 +1139,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f>[1]fc_robustness!G8</f>
-        <v>-0.10</v>
+        <v>-0.0089</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>[1]fc_robustness!H8</f>
-        <v>-0.22</v>
+        <v>-0.053</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>[1]fc_robustness!I8</f>
-        <v>-0.11</v>
+        <v>-0.0038</v>
       </c>
       <c r="E17" s="3" t="str">
         <f>[1]fc_robustness!J8</f>
-        <v>-0.12</v>
+        <v>-0.031*</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>[1]fc_robustness!K8</f>
-        <v>-0.17</v>
+        <v>-0.043</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1164,23 +1164,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f>[1]fc_robustness!G9</f>
-        <v>(0.074)</v>
+        <v>(0.019)</v>
       </c>
       <c r="C18" s="3" t="str">
         <f>[1]fc_robustness!H9</f>
-        <v>(0.16)</v>
+        <v>(0.045)</v>
       </c>
       <c r="D18" s="3" t="str">
         <f>[1]fc_robustness!I9</f>
-        <v>(0.080)</v>
+        <v>(0.028)</v>
       </c>
       <c r="E18" s="3" t="str">
         <f>[1]fc_robustness!J9</f>
-        <v>(0.081)</v>
+        <v>(0.017)</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>[1]fc_robustness!K9</f>
-        <v>(0.15)</v>
+        <v>(0.040)</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1214,23 +1214,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f>[1]fc_robustness!G12</f>
-        <v>0.011</v>
+        <v>0.031</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>[1]fc_robustness!H12</f>
-        <v>0.009</v>
+        <v>0.011</v>
       </c>
       <c r="D21" s="3" t="str">
         <f>[1]fc_robustness!I12</f>
-        <v>0.012</v>
+        <v>0.027</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>[1]fc_robustness!J12</f>
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>[1]fc_robustness!K12</f>
-        <v>0.009</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1239,23 +1239,23 @@
       </c>
       <c r="B22" s="5" t="str">
         <f>[1]fc_robustness!G13</f>
-        <v>1.83</v>
+        <v>0.57</v>
       </c>
       <c r="C22" s="5" t="str">
         <f>[1]fc_robustness!H13</f>
-        <v>3.29</v>
+        <v>1.11</v>
       </c>
       <c r="D22" s="5" t="str">
         <f>[1]fc_robustness!I13</f>
-        <v>2.03</v>
+        <v>0.72</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>[1]fc_robustness!J13</f>
-        <v>1.58</v>
+        <v>0.31</v>
       </c>
       <c r="F22" s="5" t="str">
         <f>[1]fc_robustness!K13</f>
-        <v>2.86</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>

--- a/Tables/fc_robustness.xlsx
+++ b/Tables/fc_robustness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D356ED3-BDD8-4363-9E6D-AF9D6EC7D019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05B093B-0B91-44E9-947E-2886A92B1209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
+    <workbookView xWindow="-21045" yWindow="-14550" windowWidth="14400" windowHeight="8175" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
   </bookViews>
   <sheets>
     <sheet name="fc_robustness" sheetId="1" r:id="rId1"/>
@@ -260,19 +260,19 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-202.8***</v>
+            <v>-202.3***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-297.6***</v>
+            <v>-296.7***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-206.5***</v>
+            <v>-205.9***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-96.5***</v>
+            <v>-95.6***</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-144.0**</v>
+            <v>-143.1*</v>
           </cell>
           <cell r="G5" t="str">
             <v>-0.11***</v>
@@ -284,10 +284,10 @@
             <v>-0.13***</v>
           </cell>
           <cell r="J5" t="str">
-            <v>-0.060***</v>
+            <v>-0.058***</v>
           </cell>
           <cell r="K5" t="str">
-            <v>-0.094**</v>
+            <v>-0.093**</v>
           </cell>
         </row>
         <row r="6">
@@ -295,13 +295,13 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(48.1)</v>
+            <v>(48.2)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(83.3)</v>
+            <v>(83.4)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(49.0)</v>
+            <v>(49.1)</v>
           </cell>
           <cell r="E6" t="str">
             <v>(36.6)</v>
@@ -327,34 +327,34 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-39.6</v>
+            <v>-40.1</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-57.2</v>
+            <v>-57.9</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-33.3</v>
+            <v>-33.8</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-32.3</v>
+            <v>-33.2</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-26.1</v>
+            <v>-26.8</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.0089</v>
+            <v>-0.0077</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-0.053</v>
+            <v>-0.050</v>
           </cell>
           <cell r="I8" t="str">
-            <v>-0.0038</v>
+            <v>-0.0021</v>
           </cell>
           <cell r="J8" t="str">
-            <v>-0.031*</v>
+            <v>-0.030*</v>
           </cell>
           <cell r="K8" t="str">
-            <v>-0.043</v>
+            <v>-0.041</v>
           </cell>
         </row>
         <row r="9">
@@ -371,16 +371,16 @@
             <v>(50.9)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(39.1)</v>
+            <v>(39.0)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(74.4)</v>
+            <v>(74.2)</v>
           </cell>
           <cell r="G9" t="str">
             <v>(0.019)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(0.045)</v>
+            <v>(0.044)</v>
           </cell>
           <cell r="I9" t="str">
             <v>(0.028)</v>
@@ -447,7 +447,7 @@
             <v>0.011</v>
           </cell>
           <cell r="I12" t="str">
-            <v>0.027</v>
+            <v>0.026</v>
           </cell>
           <cell r="J12" t="str">
             <v>0.008</v>
@@ -458,19 +458,19 @@
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>941.3</v>
+            <v>941.1</v>
           </cell>
           <cell r="C13" t="str">
-            <v>1387.9</v>
+            <v>1387.7</v>
           </cell>
           <cell r="D13" t="str">
-            <v>1025.0</v>
+            <v>1024.8</v>
           </cell>
           <cell r="E13" t="str">
-            <v>478.8</v>
+            <v>478.6</v>
           </cell>
           <cell r="F13" t="str">
-            <v>925.7</v>
+            <v>925.4</v>
           </cell>
           <cell r="G13" t="str">
             <v>0.57</v>
@@ -479,7 +479,7 @@
             <v>1.11</v>
           </cell>
           <cell r="I13" t="str">
-            <v>0.72</v>
+            <v>0.71</v>
           </cell>
           <cell r="J13" t="str">
             <v>0.31</v>
@@ -864,23 +864,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f>[1]fc_robustness!B5</f>
-        <v>-202.8***</v>
+        <v>-202.3***</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>[1]fc_robustness!C5</f>
-        <v>-297.6***</v>
+        <v>-296.7***</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>[1]fc_robustness!D5</f>
-        <v>-206.5***</v>
+        <v>-205.9***</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>[1]fc_robustness!E5</f>
-        <v>-96.5***</v>
+        <v>-95.6***</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>[1]fc_robustness!F5</f>
-        <v>-144.0**</v>
+        <v>-143.1*</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -890,15 +890,15 @@
       </c>
       <c r="B5" s="3" t="str">
         <f>[1]fc_robustness!B6</f>
-        <v>(48.1)</v>
+        <v>(48.2)</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>[1]fc_robustness!C6</f>
-        <v>(83.3)</v>
+        <v>(83.4)</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>[1]fc_robustness!D6</f>
-        <v>(49.0)</v>
+        <v>(49.1)</v>
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]fc_robustness!E6</f>
@@ -915,23 +915,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f>[1]fc_robustness!B8</f>
-        <v>-39.6</v>
+        <v>-40.1</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>[1]fc_robustness!C8</f>
-        <v>-57.2</v>
+        <v>-57.9</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>[1]fc_robustness!D8</f>
-        <v>-33.3</v>
+        <v>-33.8</v>
       </c>
       <c r="E6" s="3" t="str">
         <f>[1]fc_robustness!E8</f>
-        <v>-32.3</v>
+        <v>-33.2</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>[1]fc_robustness!F8</f>
-        <v>-26.1</v>
+        <v>-26.8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -953,11 +953,11 @@
       </c>
       <c r="E7" s="3" t="str">
         <f>[1]fc_robustness!E9</f>
-        <v>(39.1)</v>
+        <v>(39.0)</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>[1]fc_robustness!F9</f>
-        <v>(74.4)</v>
+        <v>(74.2)</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1016,23 +1016,23 @@
       </c>
       <c r="B11" s="5" t="str">
         <f>[1]fc_robustness!B13</f>
-        <v>941.3</v>
+        <v>941.1</v>
       </c>
       <c r="C11" s="5" t="str">
         <f>[1]fc_robustness!C13</f>
-        <v>1387.9</v>
+        <v>1387.7</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>[1]fc_robustness!D13</f>
-        <v>1025.0</v>
+        <v>1024.8</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>[1]fc_robustness!E13</f>
-        <v>478.8</v>
+        <v>478.6</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>[1]fc_robustness!F13</f>
-        <v>925.7</v>
+        <v>925.4</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="E15" s="3" t="str">
         <f>[1]fc_robustness!J5</f>
-        <v>-0.060***</v>
+        <v>-0.058***</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>[1]fc_robustness!K5</f>
-        <v>-0.094**</v>
+        <v>-0.093**</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1139,23 +1139,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f>[1]fc_robustness!G8</f>
-        <v>-0.0089</v>
+        <v>-0.0077</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>[1]fc_robustness!H8</f>
-        <v>-0.053</v>
+        <v>-0.050</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>[1]fc_robustness!I8</f>
-        <v>-0.0038</v>
+        <v>-0.0021</v>
       </c>
       <c r="E17" s="3" t="str">
         <f>[1]fc_robustness!J8</f>
-        <v>-0.031*</v>
+        <v>-0.030*</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>[1]fc_robustness!K8</f>
-        <v>-0.043</v>
+        <v>-0.041</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C18" s="3" t="str">
         <f>[1]fc_robustness!H9</f>
-        <v>(0.045)</v>
+        <v>(0.044)</v>
       </c>
       <c r="D18" s="3" t="str">
         <f>[1]fc_robustness!I9</f>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D21" s="3" t="str">
         <f>[1]fc_robustness!I12</f>
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>[1]fc_robustness!J12</f>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D22" s="5" t="str">
         <f>[1]fc_robustness!I13</f>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>[1]fc_robustness!J13</f>

--- a/Tables/fc_robustness.xlsx
+++ b/Tables/fc_robustness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05B093B-0B91-44E9-947E-2886A92B1209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A273E05D-4045-42EF-974A-B8E88CE5C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21045" yWindow="-14550" windowWidth="14400" windowHeight="8175" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
+    <workbookView xWindow="-19965" yWindow="-13470" windowWidth="21600" windowHeight="11235" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
   </bookViews>
   <sheets>
     <sheet name="fc_robustness" sheetId="1" r:id="rId1"/>
@@ -260,34 +260,34 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-202.3***</v>
+            <v>-204.0***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-296.7***</v>
+            <v>-299.9***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-205.9***</v>
+            <v>-207.7***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-95.6***</v>
+            <v>-98.5***</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-143.1*</v>
+            <v>-146.3**</v>
           </cell>
           <cell r="G5" t="str">
             <v>-0.11***</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-0.21***</v>
+            <v>-0.22***</v>
           </cell>
           <cell r="I5" t="str">
             <v>-0.13***</v>
           </cell>
           <cell r="J5" t="str">
-            <v>-0.058***</v>
+            <v>-0.062***</v>
           </cell>
           <cell r="K5" t="str">
-            <v>-0.093**</v>
+            <v>-0.097**</v>
           </cell>
         </row>
         <row r="6">
@@ -295,16 +295,16 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(48.2)</v>
+            <v>(48.1)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(83.4)</v>
+            <v>(83.3)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(49.1)</v>
+            <v>(49.0)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(36.6)</v>
+            <v>(36.7)</v>
           </cell>
           <cell r="F6" t="str">
             <v>(72.8)</v>
@@ -313,7 +313,7 @@
             <v>(0.019)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(0.050)</v>
+            <v>(0.051)</v>
           </cell>
           <cell r="I6" t="str">
             <v>(0.028)</v>
@@ -322,39 +322,39 @@
             <v>(0.019)</v>
           </cell>
           <cell r="K6" t="str">
-            <v>(0.043)</v>
+            <v>(0.044)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-40.1</v>
+            <v>-38.9</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-57.9</v>
+            <v>-56.4</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-33.8</v>
+            <v>-32.6</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-33.2</v>
+            <v>-30.7</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-26.8</v>
+            <v>-25.3</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.0077</v>
+            <v>-0.0086</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-0.050</v>
+            <v>-0.053</v>
           </cell>
           <cell r="I8" t="str">
-            <v>-0.0021</v>
+            <v>-0.0035</v>
           </cell>
           <cell r="J8" t="str">
-            <v>-0.030*</v>
+            <v>-0.031*</v>
           </cell>
           <cell r="K8" t="str">
-            <v>-0.041</v>
+            <v>-0.043</v>
           </cell>
         </row>
         <row r="9">
@@ -371,22 +371,22 @@
             <v>(50.9)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(39.0)</v>
+            <v>(39.2)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(74.2)</v>
+            <v>(74.4)</v>
           </cell>
           <cell r="G9" t="str">
             <v>(0.019)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(0.044)</v>
+            <v>(0.045)</v>
           </cell>
           <cell r="I9" t="str">
             <v>(0.028)</v>
           </cell>
           <cell r="J9" t="str">
-            <v>(0.017)</v>
+            <v>(0.018)</v>
           </cell>
           <cell r="K9" t="str">
             <v>(0.040)</v>
@@ -447,7 +447,7 @@
             <v>0.011</v>
           </cell>
           <cell r="I12" t="str">
-            <v>0.026</v>
+            <v>0.027</v>
           </cell>
           <cell r="J12" t="str">
             <v>0.008</v>
@@ -458,28 +458,28 @@
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>941.1</v>
+            <v>942.4</v>
           </cell>
           <cell r="C13" t="str">
-            <v>1387.7</v>
+            <v>1389.9</v>
           </cell>
           <cell r="D13" t="str">
-            <v>1024.8</v>
+            <v>1026.1</v>
           </cell>
           <cell r="E13" t="str">
-            <v>478.6</v>
+            <v>480.7</v>
           </cell>
           <cell r="F13" t="str">
-            <v>925.4</v>
+            <v>927.7</v>
           </cell>
           <cell r="G13" t="str">
             <v>0.57</v>
           </cell>
           <cell r="H13" t="str">
-            <v>1.11</v>
+            <v>1.12</v>
           </cell>
           <cell r="I13" t="str">
-            <v>0.71</v>
+            <v>0.72</v>
           </cell>
           <cell r="J13" t="str">
             <v>0.31</v>
@@ -864,23 +864,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f>[1]fc_robustness!B5</f>
-        <v>-202.3***</v>
+        <v>-204.0***</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>[1]fc_robustness!C5</f>
-        <v>-296.7***</v>
+        <v>-299.9***</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>[1]fc_robustness!D5</f>
-        <v>-205.9***</v>
+        <v>-207.7***</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>[1]fc_robustness!E5</f>
-        <v>-95.6***</v>
+        <v>-98.5***</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>[1]fc_robustness!F5</f>
-        <v>-143.1*</v>
+        <v>-146.3**</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -890,19 +890,19 @@
       </c>
       <c r="B5" s="3" t="str">
         <f>[1]fc_robustness!B6</f>
-        <v>(48.2)</v>
+        <v>(48.1)</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>[1]fc_robustness!C6</f>
-        <v>(83.4)</v>
+        <v>(83.3)</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>[1]fc_robustness!D6</f>
-        <v>(49.1)</v>
+        <v>(49.0)</v>
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]fc_robustness!E6</f>
-        <v>(36.6)</v>
+        <v>(36.7)</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]fc_robustness!F6</f>
@@ -915,23 +915,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f>[1]fc_robustness!B8</f>
-        <v>-40.1</v>
+        <v>-38.9</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>[1]fc_robustness!C8</f>
-        <v>-57.9</v>
+        <v>-56.4</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>[1]fc_robustness!D8</f>
-        <v>-33.8</v>
+        <v>-32.6</v>
       </c>
       <c r="E6" s="3" t="str">
         <f>[1]fc_robustness!E8</f>
-        <v>-33.2</v>
+        <v>-30.7</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>[1]fc_robustness!F8</f>
-        <v>-26.8</v>
+        <v>-25.3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -953,11 +953,11 @@
       </c>
       <c r="E7" s="3" t="str">
         <f>[1]fc_robustness!E9</f>
-        <v>(39.0)</v>
+        <v>(39.2)</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>[1]fc_robustness!F9</f>
-        <v>(74.2)</v>
+        <v>(74.4)</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1016,23 +1016,23 @@
       </c>
       <c r="B11" s="5" t="str">
         <f>[1]fc_robustness!B13</f>
-        <v>941.1</v>
+        <v>942.4</v>
       </c>
       <c r="C11" s="5" t="str">
         <f>[1]fc_robustness!C13</f>
-        <v>1387.7</v>
+        <v>1389.9</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>[1]fc_robustness!D13</f>
-        <v>1024.8</v>
+        <v>1026.1</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>[1]fc_robustness!E13</f>
-        <v>478.6</v>
+        <v>480.7</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>[1]fc_robustness!F13</f>
-        <v>925.4</v>
+        <v>927.7</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>[1]fc_robustness!H5</f>
-        <v>-0.21***</v>
+        <v>-0.22***</v>
       </c>
       <c r="D15" s="3" t="str">
         <f>[1]fc_robustness!I5</f>
@@ -1101,11 +1101,11 @@
       </c>
       <c r="E15" s="3" t="str">
         <f>[1]fc_robustness!J5</f>
-        <v>-0.058***</v>
+        <v>-0.062***</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>[1]fc_robustness!K5</f>
-        <v>-0.093**</v>
+        <v>-0.097**</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="C16" s="3" t="str">
         <f>[1]fc_robustness!H6</f>
-        <v>(0.050)</v>
+        <v>(0.051)</v>
       </c>
       <c r="D16" s="3" t="str">
         <f>[1]fc_robustness!I6</f>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="F16" s="3" t="str">
         <f>[1]fc_robustness!K6</f>
-        <v>(0.043)</v>
+        <v>(0.044)</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1139,23 +1139,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f>[1]fc_robustness!G8</f>
-        <v>-0.0077</v>
+        <v>-0.0086</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>[1]fc_robustness!H8</f>
-        <v>-0.050</v>
+        <v>-0.053</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>[1]fc_robustness!I8</f>
-        <v>-0.0021</v>
+        <v>-0.0035</v>
       </c>
       <c r="E17" s="3" t="str">
         <f>[1]fc_robustness!J8</f>
-        <v>-0.030*</v>
+        <v>-0.031*</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>[1]fc_robustness!K8</f>
-        <v>-0.041</v>
+        <v>-0.043</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C18" s="3" t="str">
         <f>[1]fc_robustness!H9</f>
-        <v>(0.044)</v>
+        <v>(0.045)</v>
       </c>
       <c r="D18" s="3" t="str">
         <f>[1]fc_robustness!I9</f>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E18" s="3" t="str">
         <f>[1]fc_robustness!J9</f>
-        <v>(0.017)</v>
+        <v>(0.018)</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>[1]fc_robustness!K9</f>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D21" s="3" t="str">
         <f>[1]fc_robustness!I12</f>
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>[1]fc_robustness!J12</f>
@@ -1243,11 +1243,11 @@
       </c>
       <c r="C22" s="5" t="str">
         <f>[1]fc_robustness!H13</f>
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="D22" s="5" t="str">
         <f>[1]fc_robustness!I13</f>
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>[1]fc_robustness!J13</f>

--- a/Tables/fc_robustness.xlsx
+++ b/Tables/fc_robustness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A273E05D-4045-42EF-974A-B8E88CE5C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F858413-36A9-49B0-B3AE-A38E8BD18A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19965" yWindow="-13470" windowWidth="21600" windowHeight="11235" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{269A27C2-C31F-48FD-ACDE-2C118D3E997D}"/>
   </bookViews>
   <sheets>
     <sheet name="fc_robustness" sheetId="1" r:id="rId1"/>
@@ -46,12 +46,6 @@
     <t>Control Mean</t>
   </si>
   <si>
-    <t>Forced commitment</t>
-  </si>
-  <si>
-    <t>Choice comitment</t>
-  </si>
-  <si>
     <t>R-squared</t>
   </si>
   <si>
@@ -86,6 +80,12 @@
   </si>
   <si>
     <t>APR (subj.value) + tc - int</t>
+  </si>
+  <si>
+    <t>Mandatory structured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice </t>
   </si>
 </sst>
 </file>
@@ -495,9 +495,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -535,7 +535,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -641,7 +641,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -783,7 +783,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -793,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455B4659-7D7D-4C06-B6D8-4AEF526941D9}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F22"/>
     </sheetView>
   </sheetViews>
@@ -817,19 +817,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -860,7 +860,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>[1]fc_robustness!B5</f>
@@ -911,7 +911,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>[1]fc_robustness!B8</f>
@@ -987,7 +987,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3" t="str">
         <f>[1]fc_robustness!B12</f>
@@ -1045,19 +1045,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1085,7 +1085,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>[1]fc_robustness!G5</f>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="3" t="str">
         <f>[1]fc_robustness!G6</f>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="str">
         <f>[1]fc_robustness!G8</f>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" s="3" t="str">
         <f>[1]fc_robustness!G9</f>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="3" t="str">
         <f>[1]fc_robustness!G12</f>
